--- a/System udvikling/Aktørtabel.xlsx
+++ b/System udvikling/Aktørtabel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +543,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:B14">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -551,7 +551,7 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/System udvikling/Aktørtabel.xlsx
+++ b/System udvikling/Aktørtabel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>Aktør</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Bruger</t>
   </si>
   <si>
-    <t>Varebehandling</t>
-  </si>
-  <si>
     <t>Varesøgning</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>backupbehandling</t>
   </si>
   <si>
-    <t>dokumentbehandling</t>
-  </si>
-  <si>
     <t>Samlet inkøb og salgs for samlede varegrp. Oversigt</t>
   </si>
   <si>
@@ -64,6 +58,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Sælger</t>
+  </si>
+  <si>
+    <t>dokumentbehandling (email,udprint)</t>
+  </si>
+  <si>
+    <t>Varebehandling(opret,redigere,slet)</t>
+  </si>
+  <si>
+    <t>Salg af vare</t>
   </si>
 </sst>
 </file>
@@ -418,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,6 +448,9 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -449,100 +458,132 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:B14">
+  <conditionalFormatting sqref="A4:B15">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>

--- a/System udvikling/Aktørtabel.xlsx
+++ b/System udvikling/Aktørtabel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875"/>
@@ -11,72 +11,72 @@
     <sheet name="Ark2" sheetId="2" r:id="rId2"/>
     <sheet name="Ark3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152510"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+  <si>
+    <t>Brugsmønstre</t>
+  </si>
   <si>
     <t>Aktør</t>
   </si>
   <si>
-    <t>Brugsmønstre</t>
+    <t>Bruger</t>
+  </si>
+  <si>
+    <t>Sælger</t>
+  </si>
+  <si>
+    <t>Bruger logind/ud</t>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Salg af vare</t>
+  </si>
+  <si>
+    <t>Varebehandling(opret,redigere,slet)</t>
+  </si>
+  <si>
+    <t>Varesøgning</t>
+  </si>
+  <si>
+    <t>Samlet inkøb og salgs for samlede varegrp. Oversigt</t>
+  </si>
+  <si>
+    <t>ordre/faktura søgning</t>
+  </si>
+  <si>
+    <t>Ordrebehandling</t>
+  </si>
+  <si>
+    <t>Odreopgradering</t>
+  </si>
+  <si>
+    <t>provisionssedel og kontoudtogsbehandling</t>
   </si>
   <si>
     <t>Tjek/ændre faktura og ordrestatus</t>
   </si>
   <si>
-    <t>Bruger</t>
-  </si>
-  <si>
-    <t>Varesøgning</t>
-  </si>
-  <si>
-    <t>ordre/faktura søgning</t>
-  </si>
-  <si>
-    <t>Ordrebehandling</t>
-  </si>
-  <si>
-    <t>Odreopgradering</t>
-  </si>
-  <si>
-    <t>provisionssedel og kontoudtogsbehandling</t>
+    <t>dokumentbehandling (email,udprint)</t>
   </si>
   <si>
     <t>backupbehandling</t>
-  </si>
-  <si>
-    <t>Samlet inkøb og salgs for samlede varegrp. Oversigt</t>
-  </si>
-  <si>
-    <t>Bruger logind/ud</t>
-  </si>
-  <si>
-    <t>✓</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Sælger</t>
-  </si>
-  <si>
-    <t>dokumentbehandling (email,udprint)</t>
-  </si>
-  <si>
-    <t>Varebehandling(opret,redigere,slet)</t>
-  </si>
-  <si>
-    <t>Salg af vare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +133,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -180,7 +183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -215,7 +218,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,156 +433,160 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4">
       <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="B16" s="3"/>
     </row>
   </sheetData>
@@ -612,7 +619,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -624,7 +631,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
